--- a/ExportExcel/Find User Test.xlsx
+++ b/ExportExcel/Find User Test.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+  <si>
+    <t>STT</t>
+  </si>
   <si>
     <t>Test Case Name</t>
   </si>
   <si>
+    <t>Test Name</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -29,25 +35,25 @@
     <t>testFindUserByEmail</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>1387 ms</t>
-  </si>
-  <si>
-    <t/>
+    <t>2203 ms</t>
   </si>
   <si>
     <t>testFindUserById</t>
   </si>
   <si>
-    <t>1219 ms</t>
+    <t>2248 ms</t>
   </si>
   <si>
     <t>testFindUserByName</t>
   </si>
   <si>
-    <t>1228 ms</t>
+    <t>2240 ms</t>
   </si>
 </sst>
 </file>
@@ -64,12 +70,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,24 +110,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.76171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.88671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.52734375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.08203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.2109375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -117,46 +147,70 @@
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>4</v>
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>10</v>
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/ExportExcel/Find User Test.xlsx
+++ b/ExportExcel/Find User Test.xlsx
@@ -41,19 +41,19 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>2203 ms</t>
+    <t>1765 ms</t>
   </si>
   <si>
     <t>testFindUserById</t>
   </si>
   <si>
-    <t>2248 ms</t>
+    <t>1900 ms</t>
   </si>
   <si>
     <t>testFindUserByName</t>
   </si>
   <si>
-    <t>2240 ms</t>
+    <t>1862 ms</t>
   </si>
 </sst>
 </file>

--- a/ExportExcel/Find User Test.xlsx
+++ b/ExportExcel/Find User Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -38,22 +38,31 @@
     <t/>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>1765 ms</t>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>2096 ms</t>
+  </si>
+  <si>
+    <t>User with email containing 'tuong.2274802010979' should be found expected [true] but found [false]</t>
   </si>
   <si>
     <t>testFindUserById</t>
   </si>
   <si>
-    <t>1900 ms</t>
+    <t>3297 ms</t>
+  </si>
+  <si>
+    <t>User with ID 2274802010979 should be found expected [true] but found [false]</t>
   </si>
   <si>
     <t>testFindUserByName</t>
   </si>
   <si>
-    <t>1862 ms</t>
+    <t>3374 ms</t>
+  </si>
+  <si>
+    <t>User with name 'Bui Ke Ton Tuong' should be found expected [true] but found [false]</t>
   </si>
 </sst>
 </file>
@@ -129,9 +138,9 @@
     <col min="1" max="1" width="3.76171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.88671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.52734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.08203125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="81.99609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -164,14 +173,14 @@
       <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -179,19 +188,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="1">
+      <c r="D3" t="s" s="2">
         <v>8</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -199,19 +208,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="1">
+      <c r="D4" t="s" s="2">
         <v>8</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
